--- a/new d-i-d estimators/AEA 2022/MISTI wave outcomes.xlsx
+++ b/new d-i-d estimators/AEA 2022/MISTI wave outcomes.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dan.killian\Documents\Methods Corner\new d-i-d estimators\AEA 2022 prez\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dan.killian\Documents\Methods Corner\new d-i-d estimators\AEA 2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC0CB343-9AD6-4BE7-9D28-31BBAE9B81F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B7EAF74-BAE3-4128-BDB6-BDFD76841345}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29340" yWindow="135" windowWidth="18675" windowHeight="15495" xr2:uid="{D90182E9-4773-47F1-9709-2700F6AA070B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{D90182E9-4773-47F1-9709-2700F6AA070B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,13 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
-  <si>
-    <t>Wave 1</t>
-  </si>
-  <si>
-    <t>Wave 2</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>Wave 4-5</t>
   </si>
@@ -92,9 +86,6 @@
   </si>
   <si>
     <t>Wave 2-4</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -141,11 +132,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -461,307 +451,294 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5E43D1F-F8B3-46D0-98CB-839387359557}">
-  <dimension ref="B1:I15"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="33.33203125" customWidth="1"/>
-    <col min="7" max="7" width="10.44140625" customWidth="1"/>
-    <col min="8" max="8" width="10" customWidth="1"/>
-    <col min="9" max="9" width="10.6640625" customWidth="1"/>
+    <col min="1" max="1" width="33.33203125" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" customWidth="1"/>
+    <col min="5" max="5" width="10" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="G1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-    </row>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C2" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" t="s">
         <v>0</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="E2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="B2" s="2">
+        <v>3.1E-2</v>
+      </c>
+      <c r="C2" s="2">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="D2" s="2">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="E2" s="1">
+        <v>-3.9E-2</v>
+      </c>
+      <c r="F2" s="2">
+        <v>-2E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="I2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
+      <c r="B3" s="2">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="C3" s="2">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="D3" s="2">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="E3" s="2">
+        <v>-3.7999999999999999E-2</v>
+      </c>
+      <c r="F3" s="2">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="2">
+      <c r="B4" s="2">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="C4" s="2">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="D4" s="2">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="E4" s="2">
+        <v>-6.9000000000000006E-2</v>
+      </c>
+      <c r="F4" s="2">
+        <v>-3.1E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="C5" s="2">
+        <v>-1.9E-2</v>
+      </c>
+      <c r="D5" s="2">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="E5" s="2">
+        <v>2.7E-2</v>
+      </c>
+      <c r="F5" s="2">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="C6" s="2">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="D6" s="2">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="E6" s="2">
+        <v>-6.4000000000000001E-2</v>
+      </c>
+      <c r="F6" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2">
+        <v>1.2E-2</v>
+      </c>
+      <c r="C7" s="2">
         <v>3.1E-2</v>
       </c>
-      <c r="F3" s="2">
-        <v>4.2999999999999997E-2</v>
-      </c>
-      <c r="G3" s="2">
+      <c r="D7" s="2">
+        <v>3.1E-2</v>
+      </c>
+      <c r="E7" s="2">
+        <v>-3.5000000000000003E-2</v>
+      </c>
+      <c r="F7" s="2">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="H3" s="1">
-        <v>-3.9E-2</v>
-      </c>
-      <c r="I3" s="2">
-        <v>-2E-3</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="2">
-        <v>4.3999999999999997E-2</v>
-      </c>
-      <c r="F4" s="2">
-        <v>5.3999999999999999E-2</v>
-      </c>
-      <c r="G4" s="2">
-        <v>3.2000000000000001E-2</v>
-      </c>
-      <c r="H4" s="2">
-        <v>-3.7999999999999999E-2</v>
-      </c>
-      <c r="I4" s="2">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0</v>
+      </c>
+      <c r="C8" s="2">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="D8" s="2">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="E8" s="2">
+        <v>-6.4000000000000001E-2</v>
+      </c>
+      <c r="F8" s="2">
+        <v>-1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="D9" s="2">
+        <v>-1E-3</v>
+      </c>
+      <c r="E9" s="2">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="F9" s="2">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2">
+        <v>3.9E-2</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1.6E-2</v>
+      </c>
+      <c r="D10" s="2">
+        <v>-3.0000000000000001E-3</v>
+      </c>
+      <c r="E10" s="2">
+        <v>-1.2E-2</v>
+      </c>
+      <c r="F10" s="2">
+        <v>-2.7E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="C11" s="2">
         <v>7.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="2">
-        <v>5.2999999999999999E-2</v>
-      </c>
-      <c r="F5" s="2">
-        <v>5.2999999999999999E-2</v>
-      </c>
-      <c r="G5" s="2">
+      <c r="D11" s="2">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="E11" s="2">
+        <v>-4.0000000000000001E-3</v>
+      </c>
+      <c r="F11" s="2">
+        <v>1.7000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2">
+        <v>-2.9000000000000001E-2</v>
+      </c>
+      <c r="C12" s="2">
+        <v>-1.4E-2</v>
+      </c>
+      <c r="D12" s="2">
+        <v>-4.3999999999999997E-2</v>
+      </c>
+      <c r="E12" s="2">
+        <v>2.7E-2</v>
+      </c>
+      <c r="F12" s="2">
+        <v>5.8000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2">
+        <v>-3.6999999999999998E-2</v>
+      </c>
+      <c r="C13" s="2">
+        <v>-2.1999999999999999E-2</v>
+      </c>
+      <c r="D13" s="2">
+        <v>-9.5000000000000001E-2</v>
+      </c>
+      <c r="E13" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="F13" s="2">
+        <v>7.3999999999999996E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="C14" s="2">
+        <v>1.6E-2</v>
+      </c>
+      <c r="D14" s="2">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="E14" s="2">
         <v>4.5999999999999999E-2</v>
       </c>
-      <c r="H5" s="2">
-        <v>-6.9000000000000006E-2</v>
-      </c>
-      <c r="I5" s="2">
-        <v>-3.1E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="2">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="F6" s="2">
-        <v>-1.9E-2</v>
-      </c>
-      <c r="G6" s="2">
-        <v>7.0000000000000001E-3</v>
-      </c>
-      <c r="H6" s="2">
-        <v>2.7E-2</v>
-      </c>
-      <c r="I6" s="2">
-        <v>2E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="2">
-        <v>6.7000000000000004E-2</v>
-      </c>
-      <c r="F7" s="2">
-        <v>6.7000000000000004E-2</v>
-      </c>
-      <c r="G7" s="2">
-        <v>5.6000000000000001E-2</v>
-      </c>
-      <c r="H7" s="2">
-        <v>-6.4000000000000001E-2</v>
-      </c>
-      <c r="I7" s="2">
-        <v>5.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="2">
-        <v>1.2E-2</v>
-      </c>
-      <c r="F8" s="2">
-        <v>3.1E-2</v>
-      </c>
-      <c r="G8" s="2">
-        <v>3.1E-2</v>
-      </c>
-      <c r="H8" s="2">
-        <v>-3.5000000000000003E-2</v>
-      </c>
-      <c r="I8" s="2">
-        <v>3.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="2">
-        <v>0</v>
-      </c>
-      <c r="F9" s="2">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="G9" s="2">
-        <v>3.4000000000000002E-2</v>
-      </c>
-      <c r="H9" s="2">
-        <v>-6.4000000000000001E-2</v>
-      </c>
-      <c r="I9" s="2">
-        <v>-1.4999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="F10" s="2">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="G10" s="2">
-        <v>-1E-3</v>
-      </c>
-      <c r="H10" s="2">
-        <v>4.4999999999999998E-2</v>
-      </c>
-      <c r="I10" s="2">
-        <v>1.4999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="2">
-        <v>3.9E-2</v>
-      </c>
-      <c r="F11" s="2">
-        <v>1.6E-2</v>
-      </c>
-      <c r="G11" s="2">
-        <v>-3.0000000000000001E-3</v>
-      </c>
-      <c r="H11" s="2">
-        <v>-1.2E-2</v>
-      </c>
-      <c r="I11" s="2">
-        <v>-2.7E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B12" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" s="2">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="F12" s="2">
-        <v>7.0000000000000001E-3</v>
-      </c>
-      <c r="G12" s="2">
-        <v>5.6000000000000001E-2</v>
-      </c>
-      <c r="H12" s="2">
-        <v>-4.0000000000000001E-3</v>
-      </c>
-      <c r="I12" s="2">
-        <v>1.7000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" s="2">
-        <v>-2.9000000000000001E-2</v>
-      </c>
-      <c r="F13" s="2">
-        <v>-1.4E-2</v>
-      </c>
-      <c r="G13" s="2">
-        <v>-4.3999999999999997E-2</v>
-      </c>
-      <c r="H13" s="2">
-        <v>2.7E-2</v>
-      </c>
-      <c r="I13" s="2">
-        <v>5.8000000000000003E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B14" t="s">
-        <v>14</v>
-      </c>
-      <c r="E14" s="2">
-        <v>-3.6999999999999998E-2</v>
-      </c>
       <c r="F14" s="2">
-        <v>-2.1999999999999999E-2</v>
-      </c>
-      <c r="G14" s="2">
-        <v>-9.5000000000000001E-2</v>
-      </c>
-      <c r="H14" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="I14" s="2">
-        <v>7.3999999999999996E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B15" t="s">
-        <v>15</v>
-      </c>
-      <c r="E15" s="2">
-        <v>8.9999999999999993E-3</v>
-      </c>
-      <c r="F15" s="2">
-        <v>1.6E-2</v>
-      </c>
-      <c r="G15" s="2">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="H15" s="2">
-        <v>4.5999999999999999E-2</v>
-      </c>
-      <c r="I15" s="2">
         <v>2.8000000000000001E-2</v>
       </c>
     </row>
